--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-07_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-07_beg.xlsx
@@ -844,7 +844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Bad Guy" - 300 Meters above "District 14" of Chernobog
+    <t xml:space="preserve">'Bad Guy' - 300 Meters above 'District 14' of Chernobog
 </t>
   </si>
   <si>
@@ -856,7 +856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Bad Guy" and its pilot; Rhodes Island elite operator Blaze and her team.
+    <t xml:space="preserve">'Bad Guy' and its pilot; Rhodes Island elite operator Blaze and her team.
 </t>
   </si>
   <si>
@@ -920,7 +920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Fine, fine. I got it. But, "Bad Guy," really? Maybe think a little harder next time you pick a name.
+    <t xml:space="preserve">[name="???"]  Fine, fine. I got it. But, 'Bad Guy,' really? Maybe think a little harder next time you pick a name.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-07_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-07_beg.xlsx
@@ -836,7 +836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">9:00 AM / Overcast
+    <t xml:space="preserve">9:00 A.M. / Overcast
 </t>
   </si>
   <si>
